--- a/doc/HBC - 大热篮球培训.xlsx
+++ b/doc/HBC - 大热篮球培训.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,122 @@
       </rPr>
       <t>（课程交费订单）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7、训练营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（训练营档案）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练员数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练点数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃学员数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史学员数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营LOGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练员/机构/其他（如场地方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营封面/介绍性图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,44 +1596,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,42 +1723,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1938,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1972,10 +2100,10 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1990,10 +2118,10 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2006,10 +2134,10 @@
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2022,10 +2150,10 @@
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
@@ -2038,10 +2166,10 @@
       <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="79"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
@@ -2054,10 +2182,10 @@
       <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="19" t="s">
         <v>22</v>
       </c>
@@ -2068,8 +2196,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
     </row>
@@ -2077,14 +2205,14 @@
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -2096,10 +2224,10 @@
       <c r="C14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="28" t="s">
         <v>2</v>
       </c>
@@ -2114,10 +2242,10 @@
       <c r="C15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,10 +2256,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,8 +2272,8 @@
       <c r="C17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2158,8 +2286,8 @@
       <c r="C18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,10 +2300,10 @@
       <c r="C19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,8 +2316,8 @@
       <c r="C20" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,10 +2330,10 @@
       <c r="C21" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,8 +2346,8 @@
       <c r="C22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,10 +2360,10 @@
       <c r="C23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,10 +2376,10 @@
       <c r="C24" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,8 +2392,8 @@
       <c r="C25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,10 +2406,10 @@
       <c r="C26" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="64"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,10 +2422,10 @@
       <c r="C27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="64"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,10 +2438,10 @@
       <c r="C28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,8 +2454,8 @@
       <c r="C29" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,10 +2466,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="47"/>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="64"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,10 +2480,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="47"/>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="64"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,10 +2494,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="64"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,10 +2508,10 @@
         <v>39</v>
       </c>
       <c r="C33" s="47"/>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="64"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,10 +2522,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="64"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2410,8 +2538,8 @@
       <c r="C35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,10 +2552,10 @@
       <c r="C36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="64"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,8 +2568,8 @@
       <c r="C37" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2454,8 +2582,8 @@
       <c r="C38" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,8 +2596,8 @@
       <c r="C39" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2480,37 +2608,37 @@
         <v>45</v>
       </c>
       <c r="C40" s="35"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" s="24" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
     </row>
     <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
@@ -2522,10 +2650,10 @@
       <c r="C44" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="67"/>
+      <c r="E44" s="78"/>
       <c r="F44" s="28" t="s">
         <v>2</v>
       </c>
@@ -2540,10 +2668,10 @@
       <c r="C45" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,10 +2682,10 @@
         <v>25</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,8 +2698,8 @@
       <c r="C47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2584,8 +2712,8 @@
       <c r="C48" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,8 +2726,8 @@
       <c r="C49" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,10 +2738,10 @@
         <v>68</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="62"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,8 +2754,8 @@
       <c r="C51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,10 +2768,10 @@
       <c r="C52" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="64"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,10 +2784,10 @@
       <c r="C53" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="64"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,10 +2800,10 @@
       <c r="C54" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="64"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,8 +2816,8 @@
       <c r="C55" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,8 +2830,8 @@
       <c r="C56" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,8 +2844,8 @@
       <c r="C57" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="36"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,8 +2856,8 @@
         <v>76</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2740,8 +2868,8 @@
         <v>75</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,8 +2882,8 @@
       <c r="C60" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="64"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,8 +2894,8 @@
         <v>79</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,8 +2906,8 @@
         <v>80</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="64"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,10 +2918,10 @@
         <v>36</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="64"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,10 +2932,10 @@
         <v>37</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="64"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="36"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,8 +2946,8 @@
         <v>92</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="64"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="36"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,8 +2958,8 @@
         <v>77</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="36"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,8 +2970,8 @@
         <v>43</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="64"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2856,8 +2984,8 @@
       <c r="C68" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="63"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="36"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2870,10 +2998,10 @@
       <c r="C69" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="64"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="36"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,10 +3014,10 @@
       <c r="C70" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="64"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="36"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,10 +3030,10 @@
       <c r="C71" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="64"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="36"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2918,8 +3046,8 @@
       <c r="C72" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="64"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="36"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,8 +3060,8 @@
       <c r="C73" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="36"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,27 +3074,27 @@
       <c r="C74" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="64"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="44"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="41"/>
       <c r="C75" s="42"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="39"/>
     </row>
     <row r="77" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
     </row>
     <row r="78" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
@@ -2978,10 +3106,10 @@
       <c r="C78" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="66" t="s">
+      <c r="D78" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="67"/>
+      <c r="E78" s="78"/>
       <c r="F78" s="28" t="s">
         <v>2</v>
       </c>
@@ -2996,8 +3124,8 @@
       <c r="C79" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,10 +3138,10 @@
       <c r="C80" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="60" t="s">
+      <c r="D80" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="61"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="36"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,10 +3154,10 @@
       <c r="C81" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="68"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="36"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,10 +3170,10 @@
       <c r="C82" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="68"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="36"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,10 +3186,10 @@
       <c r="C83" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="D83" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="62"/>
+      <c r="E83" s="75"/>
       <c r="F83" s="36"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,10 +3202,10 @@
       <c r="C84" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="62" t="s">
+      <c r="D84" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="62"/>
+      <c r="E84" s="75"/>
       <c r="F84" s="36"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,8 +3216,8 @@
         <v>95</v>
       </c>
       <c r="C85" s="30"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,10 +3230,10 @@
       <c r="C86" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="69" t="s">
+      <c r="D86" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="69"/>
+      <c r="E86" s="80"/>
       <c r="F86" s="37"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,10 +3246,10 @@
       <c r="C87" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="62" t="s">
+      <c r="D87" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="62"/>
+      <c r="E87" s="75"/>
       <c r="F87" s="36"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,10 +3262,10 @@
       <c r="C88" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="62" t="s">
+      <c r="D88" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E88" s="62"/>
+      <c r="E88" s="75"/>
       <c r="F88" s="36"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,10 +3276,10 @@
         <v>106</v>
       </c>
       <c r="C89" s="46"/>
-      <c r="D89" s="63" t="s">
+      <c r="D89" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="64"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="36"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,10 +3292,10 @@
       <c r="C90" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="D90" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="64"/>
+      <c r="E90" s="68"/>
       <c r="F90" s="36"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,10 +3308,10 @@
       <c r="C91" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E91" s="62"/>
+      <c r="E91" s="75"/>
       <c r="F91" s="36"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,8 +3324,8 @@
       <c r="C92" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
       <c r="F92" s="36"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,10 +3336,10 @@
         <v>105</v>
       </c>
       <c r="C93" s="30"/>
-      <c r="D93" s="63" t="s">
+      <c r="D93" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="64"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="36"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,8 +3352,8 @@
       <c r="C94" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="64"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="68"/>
       <c r="F94" s="36"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,35 +3366,35 @@
       <c r="C95" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
       <c r="F95" s="36"/>
     </row>
     <row r="96" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="41"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="39"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="86"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
     </row>
     <row r="98" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
     </row>
     <row r="99" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
@@ -3278,10 +3406,10 @@
       <c r="C99" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="66" t="s">
+      <c r="D99" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="67"/>
+      <c r="E99" s="78"/>
       <c r="F99" s="28" t="s">
         <v>2</v>
       </c>
@@ -3296,10 +3424,10 @@
       <c r="C100" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E100" s="68"/>
+      <c r="E100" s="79"/>
       <c r="F100" s="36"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,10 +3440,10 @@
       <c r="C101" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D101" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E101" s="61"/>
+      <c r="E101" s="70"/>
       <c r="F101" s="36"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,10 +3456,10 @@
       <c r="C102" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E102" s="68"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="36"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3344,10 +3472,10 @@
       <c r="C103" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="62" t="s">
+      <c r="D103" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="62"/>
+      <c r="E103" s="75"/>
       <c r="F103" s="36"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,10 +3488,10 @@
       <c r="C104" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="62" t="s">
+      <c r="D104" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="62"/>
+      <c r="E104" s="75"/>
       <c r="F104" s="36"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,8 +3502,8 @@
         <v>95</v>
       </c>
       <c r="C105" s="47"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
       <c r="F105" s="37"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,10 +3516,10 @@
       <c r="C106" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="69" t="s">
+      <c r="D106" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="69"/>
+      <c r="E106" s="80"/>
       <c r="F106" s="37"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,10 +3532,10 @@
       <c r="C107" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="62" t="s">
+      <c r="D107" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="62"/>
+      <c r="E107" s="75"/>
       <c r="F107" s="36"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,10 +3548,10 @@
       <c r="C108" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="62" t="s">
+      <c r="D108" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="62"/>
+      <c r="E108" s="75"/>
       <c r="F108" s="36"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,10 +3562,10 @@
         <v>106</v>
       </c>
       <c r="C109" s="47"/>
-      <c r="D109" s="63" t="s">
+      <c r="D109" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E109" s="64"/>
+      <c r="E109" s="68"/>
       <c r="F109" s="36"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3450,10 +3578,10 @@
       <c r="C110" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="63" t="s">
+      <c r="D110" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="64"/>
+      <c r="E110" s="68"/>
       <c r="F110" s="36"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,10 +3594,10 @@
       <c r="C111" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="62" t="s">
+      <c r="D111" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E111" s="62"/>
+      <c r="E111" s="75"/>
       <c r="F111" s="36"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,8 +3610,8 @@
       <c r="C112" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
       <c r="F112" s="36"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,10 +3622,10 @@
         <v>105</v>
       </c>
       <c r="C113" s="47"/>
-      <c r="D113" s="63" t="s">
+      <c r="D113" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E113" s="64"/>
+      <c r="E113" s="68"/>
       <c r="F113" s="36"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3510,8 +3638,8 @@
       <c r="C114" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="63"/>
-      <c r="E114" s="64"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="68"/>
       <c r="F114" s="36"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,35 +3652,35 @@
       <c r="C115" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="75"/>
       <c r="F115" s="36"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="49"/>
       <c r="C116" s="35"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="58"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="83"/>
       <c r="F116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="50"/>
       <c r="C117" s="42"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
       <c r="F117" s="39"/>
     </row>
     <row r="119" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
     </row>
     <row r="120" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
@@ -3564,10 +3692,10 @@
       <c r="C120" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="67"/>
+      <c r="E120" s="78"/>
       <c r="F120" s="28" t="s">
         <v>2</v>
       </c>
@@ -3582,10 +3710,10 @@
       <c r="C121" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="E121" s="68"/>
+      <c r="E121" s="79"/>
       <c r="F121" s="36"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,10 +3726,10 @@
       <c r="C122" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="60" t="s">
+      <c r="D122" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E122" s="61"/>
+      <c r="E122" s="70"/>
       <c r="F122" s="36"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,10 +3742,10 @@
       <c r="C123" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E123" s="68"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="36"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3630,10 +3758,10 @@
       <c r="C124" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="62" t="s">
+      <c r="D124" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="E124" s="62"/>
+      <c r="E124" s="75"/>
       <c r="F124" s="36"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,10 +3774,10 @@
       <c r="C125" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="63" t="s">
+      <c r="D125" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="E125" s="64"/>
+      <c r="E125" s="68"/>
       <c r="F125" s="36"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3660,10 +3788,10 @@
         <v>142</v>
       </c>
       <c r="C126" s="54"/>
-      <c r="D126" s="63" t="s">
+      <c r="D126" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E126" s="64"/>
+      <c r="E126" s="68"/>
       <c r="F126" s="36"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,10 +3804,10 @@
       <c r="C127" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="69"/>
+      <c r="E127" s="80"/>
       <c r="F127" s="37"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,10 +3820,10 @@
       <c r="C128" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="62" t="s">
+      <c r="D128" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="62"/>
+      <c r="E128" s="75"/>
       <c r="F128" s="36"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3708,10 +3836,10 @@
       <c r="C129" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="63" t="s">
+      <c r="D129" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="64"/>
+      <c r="E129" s="68"/>
       <c r="F129" s="36"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,10 +3852,10 @@
       <c r="C130" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="62" t="s">
+      <c r="D130" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="E130" s="62"/>
+      <c r="E130" s="75"/>
       <c r="F130" s="36"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,8 +3868,8 @@
       <c r="C131" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
+      <c r="D131" s="75"/>
+      <c r="E131" s="75"/>
       <c r="F131" s="36"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,8 +3882,8 @@
       <c r="C132" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="63"/>
-      <c r="E132" s="64"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="68"/>
       <c r="F132" s="36"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,27 +3896,27 @@
       <c r="C133" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
       <c r="F133" s="36"/>
     </row>
     <row r="134" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="51"/>
       <c r="C134" s="42"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="66"/>
       <c r="F134" s="39"/>
     </row>
     <row r="136" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
     </row>
     <row r="137" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
@@ -3800,10 +3928,10 @@
       <c r="C137" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="66" t="s">
+      <c r="D137" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="67"/>
+      <c r="E137" s="78"/>
       <c r="F137" s="28" t="s">
         <v>2</v>
       </c>
@@ -3818,10 +3946,10 @@
       <c r="C138" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="68" t="s">
+      <c r="D138" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="E138" s="68"/>
+      <c r="E138" s="79"/>
       <c r="F138" s="36"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,8 +3960,8 @@
         <v>146</v>
       </c>
       <c r="C139" s="54"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="61"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="70"/>
       <c r="F139" s="36"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,10 +3972,10 @@
         <v>147</v>
       </c>
       <c r="C140" s="54"/>
-      <c r="D140" s="60" t="s">
+      <c r="D140" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="E140" s="61"/>
+      <c r="E140" s="70"/>
       <c r="F140" s="36"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,121 +3988,121 @@
       <c r="C141" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="60" t="s">
+      <c r="D141" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="E141" s="61"/>
+      <c r="E141" s="70"/>
       <c r="F141" s="36"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="87">
+      <c r="A142" s="61">
         <v>5</v>
       </c>
-      <c r="B142" s="88" t="s">
+      <c r="B142" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C142" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="89" t="s">
+      <c r="C142" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E142" s="89"/>
-      <c r="F142" s="90"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="63"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="87">
+      <c r="A143" s="61">
         <v>6</v>
       </c>
-      <c r="B143" s="88" t="s">
+      <c r="B143" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C143" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="91" t="s">
+      <c r="C143" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="E143" s="92"/>
-      <c r="F143" s="90"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="63"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="87">
+      <c r="A144" s="61">
         <v>7</v>
       </c>
-      <c r="B144" s="93" t="s">
+      <c r="B144" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C144" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="94" t="s">
+      <c r="C144" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E144" s="94"/>
-      <c r="F144" s="95"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="65"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="87">
-        <v>8</v>
-      </c>
-      <c r="B145" s="88" t="s">
+      <c r="A145" s="61">
+        <v>8</v>
+      </c>
+      <c r="B145" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="89" t="s">
+      <c r="C145" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E145" s="89"/>
-      <c r="F145" s="90"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="87">
+      <c r="A146" s="61">
         <v>9</v>
       </c>
-      <c r="B146" s="88" t="s">
+      <c r="B146" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C146" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="91" t="s">
+      <c r="C146" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="E146" s="92"/>
-      <c r="F146" s="90"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="63"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="87">
+      <c r="A147" s="61">
         <v>10</v>
       </c>
-      <c r="B147" s="88" t="s">
+      <c r="B147" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C147" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="89" t="s">
+      <c r="C147" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="E147" s="89"/>
-      <c r="F147" s="90"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="87">
+      <c r="A148" s="61">
         <v>11</v>
       </c>
-      <c r="B148" s="88" t="s">
+      <c r="B148" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C148" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="90"/>
+      <c r="C148" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="63"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="54">
@@ -3986,8 +4114,8 @@
       <c r="C149" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="63"/>
-      <c r="E149" s="64"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="68"/>
       <c r="F149" s="36"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4000,62 +4128,468 @@
       <c r="C150" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="62"/>
-      <c r="E150" s="62"/>
+      <c r="D150" s="75"/>
+      <c r="E150" s="75"/>
       <c r="F150" s="36"/>
     </row>
     <row r="151" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="51"/>
       <c r="C151" s="42"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
       <c r="F151" s="39"/>
     </row>
+    <row r="153" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="76"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+    </row>
+    <row r="154" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="78"/>
+      <c r="F154" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="59">
+        <v>1</v>
+      </c>
+      <c r="B155" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="36"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="59">
+        <v>2</v>
+      </c>
+      <c r="B156" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="69"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="36"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="59">
+        <v>3</v>
+      </c>
+      <c r="B157" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E157" s="70"/>
+      <c r="F157" s="36"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="59">
+        <v>4</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="70"/>
+      <c r="F158" s="36"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="59">
+        <v>5</v>
+      </c>
+      <c r="B159" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" s="75"/>
+      <c r="F159" s="36"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="59">
+        <v>6</v>
+      </c>
+      <c r="B160" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="67"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="36"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="59">
+        <v>7</v>
+      </c>
+      <c r="B161" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="80"/>
+      <c r="E161" s="80"/>
+      <c r="F161" s="37"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="59">
+        <v>8</v>
+      </c>
+      <c r="B162" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="75"/>
+      <c r="E162" s="75"/>
+      <c r="F162" s="36"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="59">
+        <v>9</v>
+      </c>
+      <c r="B163" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="67"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="36"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="59">
+        <v>10</v>
+      </c>
+      <c r="B164" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="75"/>
+      <c r="E164" s="75"/>
+      <c r="F164" s="36"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="59">
+        <v>11</v>
+      </c>
+      <c r="B165" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="75"/>
+      <c r="E165" s="75"/>
+      <c r="F165" s="36"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="59">
+        <v>12</v>
+      </c>
+      <c r="B166" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="67"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="36"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="59">
+        <v>13</v>
+      </c>
+      <c r="B167" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C167" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="67"/>
+      <c r="E167" s="68"/>
+      <c r="F167" s="36"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="59">
+        <v>14</v>
+      </c>
+      <c r="B168" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E168" s="68"/>
+      <c r="F168" s="36"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="59">
+        <v>15</v>
+      </c>
+      <c r="B169" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E169" s="68"/>
+      <c r="F169" s="36"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="59">
+        <v>16</v>
+      </c>
+      <c r="B170" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" s="68"/>
+      <c r="F170" s="36"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="59">
+        <v>17</v>
+      </c>
+      <c r="B171" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="68"/>
+      <c r="F171" s="36"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="59">
+        <v>18</v>
+      </c>
+      <c r="B172" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="68"/>
+      <c r="F172" s="36"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="59">
+        <v>19</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="E173" s="68"/>
+      <c r="F173" s="36"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="59">
+        <v>20</v>
+      </c>
+      <c r="B174" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="67"/>
+      <c r="E174" s="68"/>
+      <c r="F174" s="36"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="59">
+        <v>21</v>
+      </c>
+      <c r="B175" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E175" s="75"/>
+      <c r="F175" s="36"/>
+    </row>
+    <row r="176" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="40"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D96:E96"/>
+  <mergeCells count="168">
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
@@ -4080,84 +4614,52 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="D115:E115"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
